--- a/Linux/DeviceDrivers/Document(important)/05.中断.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/05.中断.xlsx
@@ -1,22 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB33EA36-EA79-49DC-AC97-6F68AF03506B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18465" windowHeight="1320"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="irq_seq" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 4.1.15</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> __irqchip_of_table</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>irq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化过程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_IRQ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch/arm/kernel/irq.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imx6q_init_irq()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arch/arm/mach-imx/board-imx6dl_xxx.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irqchip_init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/irqchip/irqchip.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>of_irq_init(__irqchip_of_table)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/of/irq.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQCHIP_DECLARE(cortex_a9_gic, "arm,cortex-a9-gic", gic_of_init);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/irqchip/irq-gic.c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define IRQCHIP_DECLARE(name, compat, fn) OF_DECLARE_2(irqchip, name, compat, fn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/irqchip/irqchip.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define OF_DECLARE_2(table, name, compat, fn) _OF_DECLARE(table, name, compat, fn, of_init_fn_2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#define _OF_DECLARE(table, name, compat, fn, fn_type)   \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static const struct of_device_id __of_table_##name  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __used __section(__##table##_of_table)          \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         = { .compatible = compat,                      \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             .data = (fn == (fn_type)NULL) ? fn : fn  }</t>
+  </si>
+  <si>
+    <t>include/linux/of.h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,21 +167,120 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -55,8 +289,45 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -77,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -119,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,27 +422,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,24 +456,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,15 +631,2436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:BZ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="16384" width="2.625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:78">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:78">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+    </row>
+    <row r="5" spans="2:78">
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="5"/>
+      <c r="BA5" s="5"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="5"/>
+      <c r="BD5" s="5"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="5"/>
+      <c r="BG5" s="5"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+      <c r="BQ5" s="5"/>
+      <c r="BR5" s="5"/>
+      <c r="BS5" s="5"/>
+      <c r="BT5" s="5"/>
+      <c r="BU5" s="5"/>
+      <c r="BV5" s="5"/>
+      <c r="BW5" s="5"/>
+      <c r="BX5" s="5"/>
+      <c r="BY5" s="5"/>
+      <c r="BZ5" s="6"/>
+    </row>
+    <row r="6" spans="2:78">
+      <c r="B6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
+      <c r="BM6" s="9"/>
+      <c r="BN6" s="9"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="9"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="9"/>
+      <c r="BT6" s="9"/>
+      <c r="BU6" s="9"/>
+      <c r="BV6" s="9"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="10"/>
+    </row>
+    <row r="7" spans="2:78">
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="AY7" s="9"/>
+      <c r="AZ7" s="9"/>
+      <c r="BA7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="9"/>
+      <c r="BM7" s="9"/>
+      <c r="BN7" s="9"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="9"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="9"/>
+      <c r="BT7" s="9"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="10"/>
+    </row>
+    <row r="8" spans="2:78">
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="AY8" s="9"/>
+      <c r="AZ8" s="9"/>
+      <c r="BA8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="9"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="9"/>
+      <c r="BT8" s="9"/>
+      <c r="BU8" s="9"/>
+      <c r="BV8" s="9"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="10"/>
+    </row>
+    <row r="9" spans="2:78">
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="9"/>
+      <c r="BA9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="9"/>
+      <c r="BM9" s="9"/>
+      <c r="BN9" s="9"/>
+      <c r="BO9" s="9"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="9"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="9"/>
+      <c r="BT9" s="9"/>
+      <c r="BU9" s="9"/>
+      <c r="BV9" s="9"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="9"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="10"/>
+    </row>
+    <row r="10" spans="2:78">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="9"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="9"/>
+      <c r="BA10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="9"/>
+      <c r="BM10" s="9"/>
+      <c r="BN10" s="9"/>
+      <c r="BO10" s="9"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="9"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="9"/>
+      <c r="BT10" s="9"/>
+      <c r="BU10" s="9"/>
+      <c r="BV10" s="9"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="9"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="10"/>
+    </row>
+    <row r="11" spans="2:78">
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="9"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="9"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="9"/>
+      <c r="BA11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="9"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="9"/>
+      <c r="BT11" s="9"/>
+      <c r="BU11" s="9"/>
+      <c r="BV11" s="9"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="9"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="10"/>
+    </row>
+    <row r="12" spans="2:78">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="9"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="9"/>
+      <c r="BA12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="9"/>
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9"/>
+      <c r="BH12" s="9"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="9"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="9"/>
+      <c r="BM12" s="9"/>
+      <c r="BN12" s="9"/>
+      <c r="BO12" s="9"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="9"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="9"/>
+      <c r="BT12" s="9"/>
+      <c r="BU12" s="9"/>
+      <c r="BV12" s="9"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="9"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="10"/>
+    </row>
+    <row r="13" spans="2:78">
+      <c r="B13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="9"/>
+      <c r="BM13" s="9"/>
+      <c r="BN13" s="9"/>
+      <c r="BO13" s="9"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="9"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="9"/>
+      <c r="BT13" s="9"/>
+      <c r="BU13" s="9"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="10"/>
+    </row>
+    <row r="14" spans="2:78">
+      <c r="B14" s="11"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="9"/>
+      <c r="AL14" s="9"/>
+      <c r="AM14" s="9"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="9"/>
+      <c r="BA14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="9"/>
+      <c r="BF14" s="9"/>
+      <c r="BG14" s="9"/>
+      <c r="BH14" s="9"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="9"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="9"/>
+      <c r="BM14" s="9"/>
+      <c r="BN14" s="9"/>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BT14" s="9"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="10"/>
+    </row>
+    <row r="15" spans="2:78">
+      <c r="B15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="13"/>
+      <c r="AM15" s="13"/>
+      <c r="AN15" s="13"/>
+      <c r="AO15" s="13"/>
+      <c r="AP15" s="13"/>
+      <c r="AQ15" s="13"/>
+      <c r="AR15" s="13"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="13"/>
+      <c r="AU15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="13"/>
+      <c r="AX15" s="13"/>
+      <c r="AY15" s="13"/>
+      <c r="AZ15" s="13"/>
+      <c r="BA15" s="13"/>
+      <c r="BB15" s="13"/>
+      <c r="BC15" s="13"/>
+      <c r="BD15" s="13"/>
+      <c r="BE15" s="13"/>
+      <c r="BF15" s="13"/>
+      <c r="BG15" s="13"/>
+      <c r="BH15" s="13"/>
+      <c r="BI15" s="13"/>
+      <c r="BJ15" s="13"/>
+      <c r="BK15" s="13"/>
+      <c r="BL15" s="13"/>
+      <c r="BM15" s="13"/>
+      <c r="BN15" s="13"/>
+      <c r="BO15" s="13"/>
+      <c r="BP15" s="13"/>
+      <c r="BQ15" s="13"/>
+      <c r="BR15" s="13"/>
+      <c r="BS15" s="13"/>
+      <c r="BT15" s="13"/>
+      <c r="BU15" s="13"/>
+      <c r="BV15" s="13"/>
+      <c r="BW15" s="13"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="14"/>
+    </row>
+    <row r="17" spans="2:78">
+      <c r="B17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+      <c r="BW17" s="2"/>
+      <c r="BX17" s="2"/>
+      <c r="BY17" s="2"/>
+      <c r="BZ17" s="2"/>
+    </row>
+    <row r="18" spans="2:78">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="6"/>
+    </row>
+    <row r="19" spans="2:78">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="8"/>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="9"/>
+      <c r="BA19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="9"/>
+      <c r="BF19" s="9"/>
+      <c r="BG19" s="9"/>
+      <c r="BH19" s="9"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="9"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="9"/>
+      <c r="BM19" s="9"/>
+      <c r="BN19" s="9"/>
+      <c r="BO19" s="9"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="9"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="9"/>
+      <c r="BT19" s="9"/>
+      <c r="BU19" s="9"/>
+      <c r="BV19" s="9"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="9"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="10"/>
+    </row>
+    <row r="20" spans="2:78">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="8"/>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="9"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="9"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="9"/>
+      <c r="BA20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="9"/>
+      <c r="BF20" s="9"/>
+      <c r="BG20" s="9"/>
+      <c r="BH20" s="9"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="9"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="9"/>
+      <c r="BM20" s="9"/>
+      <c r="BN20" s="9"/>
+      <c r="BO20" s="9"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="9"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="9"/>
+      <c r="BT20" s="9"/>
+      <c r="BU20" s="9"/>
+      <c r="BV20" s="9"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="9"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="10"/>
+    </row>
+    <row r="21" spans="2:78">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="8"/>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="9"/>
+      <c r="AR21" s="9"/>
+      <c r="AS21" s="9"/>
+      <c r="AT21" s="9"/>
+      <c r="AU21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV21" s="9"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="AY21" s="9"/>
+      <c r="AZ21" s="9"/>
+      <c r="BA21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="9"/>
+      <c r="BF21" s="9"/>
+      <c r="BG21" s="9"/>
+      <c r="BH21" s="9"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="9"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="9"/>
+      <c r="BM21" s="9"/>
+      <c r="BN21" s="9"/>
+      <c r="BO21" s="9"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="9"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="9"/>
+      <c r="BT21" s="9"/>
+      <c r="BU21" s="9"/>
+      <c r="BV21" s="9"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="9"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="10"/>
+    </row>
+    <row r="22" spans="2:78">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="8"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="9"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="9"/>
+      <c r="AR22" s="9"/>
+      <c r="AS22" s="9"/>
+      <c r="AT22" s="9"/>
+      <c r="AU22" s="8"/>
+      <c r="AV22" s="9"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="AY22" s="9"/>
+      <c r="AZ22" s="9"/>
+      <c r="BA22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="9"/>
+      <c r="BF22" s="9"/>
+      <c r="BG22" s="9"/>
+      <c r="BH22" s="9"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="9"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="9"/>
+      <c r="BM22" s="9"/>
+      <c r="BN22" s="9"/>
+      <c r="BO22" s="9"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="9"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="9"/>
+      <c r="BT22" s="9"/>
+      <c r="BU22" s="9"/>
+      <c r="BV22" s="9"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="9"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="10"/>
+    </row>
+    <row r="23" spans="2:78">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="8"/>
+      <c r="AN23" s="8"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="8"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="9"/>
+      <c r="BM23" s="9"/>
+      <c r="BN23" s="9"/>
+      <c r="BO23" s="9"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="9"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="9"/>
+      <c r="BT23" s="9"/>
+      <c r="BU23" s="9"/>
+      <c r="BV23" s="9"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="9"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="10"/>
+    </row>
+    <row r="24" spans="2:78">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="9"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="9"/>
+      <c r="AR24" s="9"/>
+      <c r="AS24" s="9"/>
+      <c r="AT24" s="9"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="9"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="AY24" s="9"/>
+      <c r="AZ24" s="9"/>
+      <c r="BA24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="9"/>
+      <c r="BF24" s="9"/>
+      <c r="BG24" s="9"/>
+      <c r="BH24" s="9"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="9"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="9"/>
+      <c r="BM24" s="9"/>
+      <c r="BN24" s="9"/>
+      <c r="BO24" s="9"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="9"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="9"/>
+      <c r="BT24" s="9"/>
+      <c r="BU24" s="9"/>
+      <c r="BV24" s="9"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="9"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="10"/>
+    </row>
+    <row r="25" spans="2:78">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="8"/>
+      <c r="AN25" s="8"/>
+      <c r="AO25" s="9"/>
+      <c r="AP25" s="9"/>
+      <c r="AQ25" s="9"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="9"/>
+      <c r="AT25" s="9"/>
+      <c r="AU25" s="8"/>
+      <c r="AV25" s="9"/>
+      <c r="AW25" s="9"/>
+      <c r="AX25" s="9"/>
+      <c r="AY25" s="9"/>
+      <c r="AZ25" s="9"/>
+      <c r="BA25" s="9"/>
+      <c r="BB25" s="9"/>
+      <c r="BC25" s="9"/>
+      <c r="BD25" s="9"/>
+      <c r="BE25" s="9"/>
+      <c r="BF25" s="9"/>
+      <c r="BG25" s="9"/>
+      <c r="BH25" s="9"/>
+      <c r="BI25" s="9"/>
+      <c r="BJ25" s="9"/>
+      <c r="BK25" s="9"/>
+      <c r="BL25" s="9"/>
+      <c r="BM25" s="9"/>
+      <c r="BN25" s="9"/>
+      <c r="BO25" s="9"/>
+      <c r="BP25" s="9"/>
+      <c r="BQ25" s="9"/>
+      <c r="BR25" s="9"/>
+      <c r="BS25" s="9"/>
+      <c r="BT25" s="9"/>
+      <c r="BU25" s="9"/>
+      <c r="BV25" s="9"/>
+      <c r="BW25" s="9"/>
+      <c r="BX25" s="9"/>
+      <c r="BY25" s="9"/>
+      <c r="BZ25" s="10"/>
+    </row>
+    <row r="26" spans="2:78">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="9"/>
+      <c r="AP26" s="9"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
+      <c r="AT26" s="9"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
+      <c r="BA26" s="9"/>
+      <c r="BB26" s="9"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
+      <c r="BH26" s="9"/>
+      <c r="BI26" s="9"/>
+      <c r="BJ26" s="9"/>
+      <c r="BK26" s="9"/>
+      <c r="BL26" s="9"/>
+      <c r="BM26" s="9"/>
+      <c r="BN26" s="9"/>
+      <c r="BO26" s="9"/>
+      <c r="BP26" s="9"/>
+      <c r="BQ26" s="9"/>
+      <c r="BR26" s="9"/>
+      <c r="BS26" s="9"/>
+      <c r="BT26" s="9"/>
+      <c r="BU26" s="9"/>
+      <c r="BV26" s="9"/>
+      <c r="BW26" s="9"/>
+      <c r="BX26" s="9"/>
+      <c r="BY26" s="9"/>
+      <c r="BZ26" s="10"/>
+    </row>
+    <row r="27" spans="2:78">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="8"/>
+      <c r="AN27" s="8"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="9"/>
+      <c r="AQ27" s="9"/>
+      <c r="AR27" s="9"/>
+      <c r="AS27" s="9"/>
+      <c r="AT27" s="9"/>
+      <c r="AU27" s="8"/>
+      <c r="AV27" s="9"/>
+      <c r="AW27" s="9"/>
+      <c r="AX27" s="9"/>
+      <c r="AY27" s="9"/>
+      <c r="AZ27" s="9"/>
+      <c r="BA27" s="9"/>
+      <c r="BB27" s="9"/>
+      <c r="BC27" s="9"/>
+      <c r="BD27" s="9"/>
+      <c r="BE27" s="9"/>
+      <c r="BF27" s="9"/>
+      <c r="BG27" s="9"/>
+      <c r="BH27" s="9"/>
+      <c r="BI27" s="9"/>
+      <c r="BJ27" s="9"/>
+      <c r="BK27" s="9"/>
+      <c r="BL27" s="9"/>
+      <c r="BM27" s="9"/>
+      <c r="BN27" s="9"/>
+      <c r="BO27" s="9"/>
+      <c r="BP27" s="9"/>
+      <c r="BQ27" s="9"/>
+      <c r="BR27" s="9"/>
+      <c r="BS27" s="9"/>
+      <c r="BT27" s="9"/>
+      <c r="BU27" s="9"/>
+      <c r="BV27" s="9"/>
+      <c r="BW27" s="9"/>
+      <c r="BX27" s="9"/>
+      <c r="BY27" s="9"/>
+      <c r="BZ27" s="10"/>
+    </row>
+    <row r="28" spans="2:78">
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="9"/>
+      <c r="AL28" s="9"/>
+      <c r="AM28" s="9"/>
+      <c r="AN28" s="9"/>
+      <c r="AO28" s="9"/>
+      <c r="AP28" s="9"/>
+      <c r="AQ28" s="9"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="9"/>
+      <c r="AT28" s="9"/>
+      <c r="AU28" s="9"/>
+      <c r="AV28" s="9"/>
+      <c r="AW28" s="9"/>
+      <c r="AX28" s="9"/>
+      <c r="AY28" s="9"/>
+      <c r="AZ28" s="9"/>
+      <c r="BA28" s="9"/>
+      <c r="BB28" s="9"/>
+      <c r="BC28" s="9"/>
+      <c r="BD28" s="9"/>
+      <c r="BE28" s="9"/>
+      <c r="BF28" s="9"/>
+      <c r="BG28" s="9"/>
+      <c r="BH28" s="9"/>
+      <c r="BI28" s="9"/>
+      <c r="BJ28" s="9"/>
+      <c r="BK28" s="9"/>
+      <c r="BL28" s="9"/>
+      <c r="BM28" s="9"/>
+      <c r="BN28" s="9"/>
+      <c r="BO28" s="9"/>
+      <c r="BP28" s="9"/>
+      <c r="BQ28" s="9"/>
+      <c r="BR28" s="9"/>
+      <c r="BS28" s="9"/>
+      <c r="BT28" s="9"/>
+      <c r="BU28" s="9"/>
+      <c r="BV28" s="9"/>
+      <c r="BW28" s="9"/>
+      <c r="BX28" s="9"/>
+      <c r="BY28" s="9"/>
+      <c r="BZ28" s="10"/>
+    </row>
+    <row r="29" spans="2:78">
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="9"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="9"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="9"/>
+      <c r="AT29" s="9"/>
+      <c r="AU29" s="9"/>
+      <c r="AV29" s="9"/>
+      <c r="AW29" s="9"/>
+      <c r="AX29" s="9"/>
+      <c r="AY29" s="9"/>
+      <c r="AZ29" s="9"/>
+      <c r="BA29" s="9"/>
+      <c r="BB29" s="9"/>
+      <c r="BC29" s="9"/>
+      <c r="BD29" s="9"/>
+      <c r="BE29" s="9"/>
+      <c r="BF29" s="9"/>
+      <c r="BG29" s="9"/>
+      <c r="BH29" s="9"/>
+      <c r="BI29" s="9"/>
+      <c r="BJ29" s="9"/>
+      <c r="BK29" s="9"/>
+      <c r="BL29" s="9"/>
+      <c r="BM29" s="9"/>
+      <c r="BN29" s="9"/>
+      <c r="BO29" s="9"/>
+      <c r="BP29" s="9"/>
+      <c r="BQ29" s="9"/>
+      <c r="BR29" s="9"/>
+      <c r="BS29" s="9"/>
+      <c r="BT29" s="9"/>
+      <c r="BU29" s="9"/>
+      <c r="BV29" s="9"/>
+      <c r="BW29" s="9"/>
+      <c r="BX29" s="9"/>
+      <c r="BY29" s="9"/>
+      <c r="BZ29" s="10"/>
+    </row>
+    <row r="30" spans="2:78">
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="9"/>
+      <c r="AL30" s="9"/>
+      <c r="AM30" s="9"/>
+      <c r="AN30" s="9"/>
+      <c r="AO30" s="9"/>
+      <c r="AP30" s="9"/>
+      <c r="AQ30" s="9"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="9"/>
+      <c r="AT30" s="9"/>
+      <c r="AU30" s="9"/>
+      <c r="AV30" s="9"/>
+      <c r="AW30" s="9"/>
+      <c r="AX30" s="9"/>
+      <c r="AY30" s="9"/>
+      <c r="AZ30" s="9"/>
+      <c r="BA30" s="9"/>
+      <c r="BB30" s="9"/>
+      <c r="BC30" s="9"/>
+      <c r="BD30" s="9"/>
+      <c r="BE30" s="9"/>
+      <c r="BF30" s="9"/>
+      <c r="BG30" s="9"/>
+      <c r="BH30" s="9"/>
+      <c r="BI30" s="9"/>
+      <c r="BJ30" s="9"/>
+      <c r="BK30" s="9"/>
+      <c r="BL30" s="9"/>
+      <c r="BM30" s="9"/>
+      <c r="BN30" s="9"/>
+      <c r="BO30" s="9"/>
+      <c r="BP30" s="9"/>
+      <c r="BQ30" s="9"/>
+      <c r="BR30" s="9"/>
+      <c r="BS30" s="9"/>
+      <c r="BT30" s="9"/>
+      <c r="BU30" s="9"/>
+      <c r="BV30" s="9"/>
+      <c r="BW30" s="9"/>
+      <c r="BX30" s="9"/>
+      <c r="BY30" s="9"/>
+      <c r="BZ30" s="10"/>
+    </row>
+    <row r="31" spans="2:78">
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="9"/>
+      <c r="AL31" s="9"/>
+      <c r="AM31" s="9"/>
+      <c r="AN31" s="9"/>
+      <c r="AO31" s="9"/>
+      <c r="AP31" s="9"/>
+      <c r="AQ31" s="9"/>
+      <c r="AR31" s="9"/>
+      <c r="AS31" s="9"/>
+      <c r="AT31" s="9"/>
+      <c r="AU31" s="9"/>
+      <c r="AV31" s="9"/>
+      <c r="AW31" s="9"/>
+      <c r="AX31" s="9"/>
+      <c r="AY31" s="9"/>
+      <c r="AZ31" s="9"/>
+      <c r="BA31" s="9"/>
+      <c r="BB31" s="9"/>
+      <c r="BC31" s="9"/>
+      <c r="BD31" s="9"/>
+      <c r="BE31" s="9"/>
+      <c r="BF31" s="9"/>
+      <c r="BG31" s="9"/>
+      <c r="BH31" s="9"/>
+      <c r="BI31" s="9"/>
+      <c r="BJ31" s="9"/>
+      <c r="BK31" s="9"/>
+      <c r="BL31" s="9"/>
+      <c r="BM31" s="9"/>
+      <c r="BN31" s="9"/>
+      <c r="BO31" s="9"/>
+      <c r="BP31" s="9"/>
+      <c r="BQ31" s="9"/>
+      <c r="BR31" s="9"/>
+      <c r="BS31" s="9"/>
+      <c r="BT31" s="9"/>
+      <c r="BU31" s="9"/>
+      <c r="BV31" s="9"/>
+      <c r="BW31" s="9"/>
+      <c r="BX31" s="9"/>
+      <c r="BY31" s="9"/>
+      <c r="BZ31" s="10"/>
+    </row>
+    <row r="32" spans="2:78">
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="9"/>
+      <c r="AR32" s="9"/>
+      <c r="AS32" s="9"/>
+      <c r="AT32" s="9"/>
+      <c r="AU32" s="9"/>
+      <c r="AV32" s="9"/>
+      <c r="AW32" s="9"/>
+      <c r="AX32" s="9"/>
+      <c r="AY32" s="9"/>
+      <c r="AZ32" s="9"/>
+      <c r="BA32" s="9"/>
+      <c r="BB32" s="9"/>
+      <c r="BC32" s="9"/>
+      <c r="BD32" s="9"/>
+      <c r="BE32" s="9"/>
+      <c r="BF32" s="9"/>
+      <c r="BG32" s="9"/>
+      <c r="BH32" s="9"/>
+      <c r="BI32" s="9"/>
+      <c r="BJ32" s="9"/>
+      <c r="BK32" s="9"/>
+      <c r="BL32" s="9"/>
+      <c r="BM32" s="9"/>
+      <c r="BN32" s="9"/>
+      <c r="BO32" s="9"/>
+      <c r="BP32" s="9"/>
+      <c r="BQ32" s="9"/>
+      <c r="BR32" s="9"/>
+      <c r="BS32" s="9"/>
+      <c r="BT32" s="9"/>
+      <c r="BU32" s="9"/>
+      <c r="BV32" s="9"/>
+      <c r="BW32" s="9"/>
+      <c r="BX32" s="9"/>
+      <c r="BY32" s="9"/>
+      <c r="BZ32" s="10"/>
+    </row>
+    <row r="33" spans="2:78">
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="9"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="9"/>
+      <c r="AO33" s="9"/>
+      <c r="AP33" s="9"/>
+      <c r="AQ33" s="9"/>
+      <c r="AR33" s="9"/>
+      <c r="AS33" s="9"/>
+      <c r="AT33" s="9"/>
+      <c r="AU33" s="9"/>
+      <c r="AV33" s="9"/>
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="9"/>
+      <c r="AY33" s="9"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="9"/>
+      <c r="BC33" s="9"/>
+      <c r="BD33" s="9"/>
+      <c r="BE33" s="9"/>
+      <c r="BF33" s="9"/>
+      <c r="BG33" s="9"/>
+      <c r="BH33" s="9"/>
+      <c r="BI33" s="9"/>
+      <c r="BJ33" s="9"/>
+      <c r="BK33" s="9"/>
+      <c r="BL33" s="9"/>
+      <c r="BM33" s="9"/>
+      <c r="BN33" s="9"/>
+      <c r="BO33" s="9"/>
+      <c r="BP33" s="9"/>
+      <c r="BQ33" s="9"/>
+      <c r="BR33" s="9"/>
+      <c r="BS33" s="9"/>
+      <c r="BT33" s="9"/>
+      <c r="BU33" s="9"/>
+      <c r="BV33" s="9"/>
+      <c r="BW33" s="9"/>
+      <c r="BX33" s="9"/>
+      <c r="BY33" s="9"/>
+      <c r="BZ33" s="10"/>
+    </row>
+    <row r="34" spans="2:78">
+      <c r="B34" s="12"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="13"/>
+      <c r="BF34" s="13"/>
+      <c r="BG34" s="13"/>
+      <c r="BH34" s="13"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="13"/>
+      <c r="BK34" s="13"/>
+      <c r="BL34" s="13"/>
+      <c r="BM34" s="13"/>
+      <c r="BN34" s="13"/>
+      <c r="BO34" s="13"/>
+      <c r="BP34" s="13"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="13"/>
+      <c r="BS34" s="13"/>
+      <c r="BT34" s="13"/>
+      <c r="BU34" s="13"/>
+      <c r="BV34" s="13"/>
+      <c r="BW34" s="13"/>
+      <c r="BX34" s="13"/>
+      <c r="BY34" s="13"/>
+      <c r="BZ34" s="14"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/Linux/DeviceDrivers/Document(important)/05.中断.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/05.中断.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Repo\SourceCodeRepo\Linux\DeviceDrivers\Document(important)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32FDEC3-5F0A-40DA-A750-28765420E018}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="irq_hc" sheetId="3" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="457">
   <si>
     <r>
       <rPr>
@@ -31,7 +37,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>4.1.15</t>
     </r>
@@ -53,7 +59,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>.h</t>
     </r>
@@ -222,9 +228,6 @@
   </si>
   <si>
     <t>{</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    __irq_set_handler(irq, handle, 1, NULL);</t>
   </si>
   <si>
     <t>}</t>
@@ -1225,10 +1228,100 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> 4.1.15</t>
     </r>
+  </si>
+  <si>
+    <t>compatible = "arm,cortex-a9-gic";</t>
+  </si>
+  <si>
+    <t>arch/arm/boot/dts/imx6qdl.dtsi</t>
+  </si>
+  <si>
+    <t>#define _OF_DECLARE(table, name, compat, fn, fn_type)   \</t>
+  </si>
+  <si>
+    <t>include/linux/of.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static const struct of_device_id __of_table_##name  \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        __used __section(__##table##_of_table)          \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         = { .compatible = compat,                      \</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             .data = (fn == (fn_type)NULL) ? fn : fn  }</t>
+  </si>
+  <si>
+    <t>#define OF_DECLARE_2(table, name, compat, fn) _OF_DECLARE(table, name, compat, fn, of_init_fn_2)</t>
+  </si>
+  <si>
+    <t>#define IRQCHIP_DECLARE(name, compat, fn) OF_DECLARE_2(irqchip, name, compat, fn)</t>
+  </si>
+  <si>
+    <t>drivers/irqchip/irqchip.h</t>
+  </si>
+  <si>
+    <t>IRQCHIP_DECLARE(cortex_a9_gic, "arm,cortex-a9-gic", gic_of_init);</t>
+  </si>
+  <si>
+    <t>drivers/irqchip/irq-gic.c</t>
+  </si>
+  <si>
+    <t>start_kernel()</t>
+  </si>
+  <si>
+    <t>init/main.c</t>
+  </si>
+  <si>
+    <t>early_irq_init()</t>
+  </si>
+  <si>
+    <t>initcnt = arch_probe_nr_irqs()</t>
+  </si>
+  <si>
+    <t>arch/arm/kernel/irq.c</t>
+  </si>
+  <si>
+    <t>desc = alloc_desc(i, node, NULL)</t>
+  </si>
+  <si>
+    <t>irq_insert_desc(i, desc)</t>
+  </si>
+  <si>
+    <t>arch_early_irq_init()</t>
+  </si>
+  <si>
+    <t>init_IRQ()</t>
+  </si>
+  <si>
+    <t>imx6q_init_irq()</t>
+  </si>
+  <si>
+    <t>arch/arm/mach-imx/board-imx6dl_xxx.c</t>
+  </si>
+  <si>
+    <t>irqchip_init()</t>
+  </si>
+  <si>
+    <t>drivers/irqchip/irqchip.c</t>
+  </si>
+  <si>
+    <t>of_irq_init(__irqchip_of_table)</t>
+  </si>
+  <si>
+    <t>drivers/of/irq.c</t>
+  </si>
+  <si>
+    <t>gic_of_init(desc-&gt;dev, desc-&gt;interrupt_parent)</t>
+  </si>
+  <si>
+    <t>gic_init_bases(gic_cnt, -1, dist_base, cpu_base, percpu_offset, node)</t>
   </si>
   <si>
     <r>
@@ -1236,123 +1329,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gic(general interrupt controller)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>初始化过程</t>
-    </r>
-  </si>
-  <si>
-    <t>compatible = "arm,cortex-a9-gic";</t>
-  </si>
-  <si>
-    <t>arch/arm/boot/dts/imx6qdl.dtsi</t>
-  </si>
-  <si>
-    <t>#define _OF_DECLARE(table, name, compat, fn, fn_type)   \</t>
-  </si>
-  <si>
-    <t>include/linux/of.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    static const struct of_device_id __of_table_##name  \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        __used __section(__##table##_of_table)          \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         = { .compatible = compat,                      \</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             .data = (fn == (fn_type)NULL) ? fn : fn  }</t>
-  </si>
-  <si>
-    <t>#define OF_DECLARE_2(table, name, compat, fn) _OF_DECLARE(table, name, compat, fn, of_init_fn_2)</t>
-  </si>
-  <si>
-    <t>#define IRQCHIP_DECLARE(name, compat, fn) OF_DECLARE_2(irqchip, name, compat, fn)</t>
-  </si>
-  <si>
-    <t>drivers/irqchip/irqchip.h</t>
-  </si>
-  <si>
-    <t>IRQCHIP_DECLARE(cortex_a9_gic, "arm,cortex-a9-gic", gic_of_init);</t>
-  </si>
-  <si>
-    <t>drivers/irqchip/irq-gic.c</t>
-  </si>
-  <si>
-    <t>start_kernel()</t>
-  </si>
-  <si>
-    <t>init/main.c</t>
-  </si>
-  <si>
-    <t>early_irq_init()</t>
-  </si>
-  <si>
-    <t>initcnt = arch_probe_nr_irqs()</t>
-  </si>
-  <si>
-    <t>arch/arm/kernel/irq.c</t>
-  </si>
-  <si>
-    <t>desc = alloc_desc(i, node, NULL)</t>
-  </si>
-  <si>
-    <t>irq_insert_desc(i, desc)</t>
-  </si>
-  <si>
-    <t>arch_early_irq_init()</t>
-  </si>
-  <si>
-    <t>init_IRQ()</t>
-  </si>
-  <si>
-    <t>imx6q_init_irq()</t>
-  </si>
-  <si>
-    <t>arch/arm/mach-imx/board-imx6dl_xxx.c</t>
-  </si>
-  <si>
-    <t>irqchip_init()</t>
-  </si>
-  <si>
-    <t>drivers/irqchip/irqchip.c</t>
-  </si>
-  <si>
-    <t>of_irq_init(__irqchip_of_table)</t>
-  </si>
-  <si>
-    <t>drivers/of/irq.c</t>
-  </si>
-  <si>
-    <t>gic_of_init(desc-&gt;dev, desc-&gt;interrupt_parent)</t>
-  </si>
-  <si>
-    <t>gic_init_bases(gic_cnt, -1, dist_base, cpu_base, percpu_offset, node)</t>
-  </si>
-  <si>
-    <t>gic-&gt;domain = irq_domain_add_linear(node, gic_irqs, &amp;gic_irq_domain_hierarchy_ops, gic)</t>
-  </si>
-  <si>
-    <t>__irq_domain_add(of_node, size, size, 0, ops, host_data)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>gpio</t>
     </r>
@@ -1382,19 +1359,7 @@
     <t>mxc_gpio_probe()</t>
   </si>
   <si>
-    <t>port-&gt;irq = platform_get_irq(pdev, 0)</t>
-  </si>
-  <si>
-    <t>irq_set_chained_handler(port-&gt;irq, mx3_gpio_irq_handler)</t>
-  </si>
-  <si>
-    <t>irq_get_desc_buslock(irq, &amp;flags, 0)</t>
-  </si>
-  <si>
     <t>irq_set_handler_data(port-&gt;irq, port)</t>
-  </si>
-  <si>
-    <t>port-&gt;domain = irq_domain_add_legacy(np, 32, irq_base, 0, &amp;irq_domain_simple_ops, NULL)</t>
   </si>
   <si>
     <r>
@@ -1411,7 +1376,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Courier New"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>irq</t>
     </r>
@@ -1455,18 +1420,186 @@
   <si>
     <t>desc-&gt;handle_irq(irq, desc)</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">irq_set_chained_handler(port-&gt;irq, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>mx3_gpio_irq_handler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irq_get_desc_buslock(irq, &amp;flags, 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gic(generic interrupt controller)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初始化过程</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gic-&gt;domain = irq_domain_add_linear(node, gic_irqs, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>gic_irq_domain_hierarchy_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, gic)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>err = bgpio_init(&amp;port-&gt;bgc, &amp;pdev-&gt;dev, 4, port-&gt;base + GPIO_DR, port-&gt;base + GPIO_DR, NULL, port-&gt;base + GPIO_GDIR, NULL, 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>err = gpiochip_add(&amp;port-&gt;bgc.gc);</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/gpio/gpio-generic.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/gpio/gpiolib.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irq_base = irq_alloc_descs(-1, 0, 32, numa_node_id())</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel/irq/irqdesc.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel/irq/irqdomain.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>port-&gt;domain = irq_domain_add_legacy(np, 32, irq_base, 0, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>irq_domain_simple_ops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>, NULL)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>__irq_domain_add(of_node, size, size, 0, ops, host_data)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    __irq_set_handler(irq, handle, 1, NULL);</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc-&gt;handle_irq = handle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>port-&gt;irq = platform_get_irq(pdev, 0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/base/platform.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret = of_irq_get(dev-&gt;dev.of_node, num)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irqd_set_trigger_type(irq_get_irq_data(r-&gt;start), r-&gt;flags &amp; IORESOURCE_BITS)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>drivers/of/irq.c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rc = of_irq_parse_one(dev, index, &amp;oirq)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>irq_create_of_mapping(&amp;oirq)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain-&gt;ops-&gt;xlate(domain, irq_data-&gt;np, irq_data-&gt;args, irq_data-&gt;args_count, &amp;hwirq, &amp;type)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>virq = irq_find_mapping(domain, hwirq)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>virq = irq_domain_alloc_irqs(domain, 1, NUMA_NO_NODE, irq_data)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,7 +1611,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Courier New"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1487,151 +1620,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,198 +1649,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1956,251 +1785,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2292,61 +1879,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2633,34 +2176,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E436"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="E293" sqref="E293"/>
+    <sheetView showGridLines="0" topLeftCell="D298" workbookViewId="0">
+      <selection activeCell="E315" sqref="E315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="12" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.66666666666667" style="3"/>
-    <col min="2" max="2" width="12.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="113.775" style="3" customWidth="1"/>
-    <col min="4" max="4" width="2.66666666666667" style="3"/>
-    <col min="5" max="5" width="102.5" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="2.66666666666667" style="3"/>
+    <col min="1" max="1" width="2.6640625" style="3"/>
+    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="113.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="3"/>
+    <col min="5" max="5" width="102.44140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="2.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2671,7 +2214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -2679,600 +2222,600 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="25"/>
     </row>
-    <row r="12" spans="3:3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="3:3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C14" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="25"/>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="25"/>
     </row>
-    <row r="23" spans="3:3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" s="25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="25"/>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C30" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="3:3">
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="25"/>
     </row>
-    <row r="39" spans="3:3">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="3:3">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="3:3">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="3:3">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="25"/>
     </row>
-    <row r="45" spans="3:3">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="3:3">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="3:3">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="3:3">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="3:3">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="3:3">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="3:3">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="3:3">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="3:3">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="3:3">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="3:3">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="3:3">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="3:3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C65" s="27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C66" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C67" s="28" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="3:3">
-      <c r="C68" s="29" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="3" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="3:3">
-      <c r="C72" s="3" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C74" s="3" t="s">
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" s="3" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="E78" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="3" t="s">
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="24" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80" s="24" t="s">
+      <c r="E80" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E80" s="27" t="s">
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="25" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5">
-      <c r="C81" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E81" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="E82" s="28" t="s">
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="25" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="83" spans="3:5">
-      <c r="C83" s="25" t="s">
+      <c r="E83" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E83" s="28" t="s">
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="84" spans="3:5">
-      <c r="C84" s="25" t="s">
+      <c r="E84" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E84" s="28" t="s">
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="85" spans="3:5">
-      <c r="C85" s="25" t="s">
+      <c r="E85" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E85" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5">
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E86" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="25" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="C87" s="25" t="s">
+      <c r="E87" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E87" s="28" t="s">
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="C88" s="25" t="s">
+      <c r="E88" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E88" s="28" t="s">
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="25" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="89" spans="3:5">
-      <c r="C89" s="25" t="s">
+      <c r="E89" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="28" t="s">
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="25" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="3:5">
-      <c r="C90" s="25" t="s">
+      <c r="E90" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E90" s="28" t="s">
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="91" spans="3:5">
-      <c r="C91" s="25" t="s">
+      <c r="E91" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="28" t="s">
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="92" spans="3:5">
-      <c r="C92" s="25" t="s">
+      <c r="E92" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E92" s="28" t="s">
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="3:5">
-      <c r="C93" s="25" t="s">
+      <c r="E93" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E93" s="28" t="s">
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="25" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="94" spans="3:5">
-      <c r="C94" s="25" t="s">
+      <c r="E94" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E94" s="28" t="s">
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="3:5">
-      <c r="C95" s="25" t="s">
+      <c r="E95" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="28" t="s">
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="3:5">
-      <c r="C96" s="25" t="s">
+      <c r="E96" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E96" s="28" t="s">
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="C97" s="25" t="s">
+      <c r="E97" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="E97" s="28" t="s">
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="C98" s="25" t="s">
+      <c r="E98" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E98" s="28" t="s">
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="25" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="25" t="s">
+      <c r="E99" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E99" s="28" t="s">
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="25" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="25" t="s">
+      <c r="E100" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E100" s="28" t="s">
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="25" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="25" t="s">
+      <c r="E101" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="E101" s="28" t="s">
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="3:5">
-      <c r="C102" s="25" t="s">
+      <c r="E102" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E102" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="C103" s="25" t="s">
+      <c r="E103" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="E103" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5">
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E104" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E105" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="C106" s="25" t="s">
+      <c r="E106" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E106" s="28" t="s">
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="25" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="107" spans="3:5">
-      <c r="C107" s="25" t="s">
+      <c r="E107" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E107" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="25" t="s">
+      <c r="E108" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="E108" s="28" t="s">
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="C109" s="25" t="s">
+      <c r="E109" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E109" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="C110" s="25" t="s">
+      <c r="E110" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="29" t="s">
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="25" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="3:3">
-      <c r="C111" s="25" t="s">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="25" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="112" spans="3:5">
-      <c r="C112" s="25" t="s">
+      <c r="E112" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E112" s="27" t="s">
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="25" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="113" spans="3:5">
-      <c r="C113" s="25" t="s">
+      <c r="E113" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="E113" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="3:5">
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="25" t="s">
         <v>48</v>
       </c>
@@ -3280,1677 +2823,1676 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E115" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="28" t="s">
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="116" spans="3:5">
-      <c r="C116" s="25" t="s">
+      <c r="E116" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="E116" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="3:5">
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E117" s="28"/>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E118" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="28" t="s">
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="25" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="119" spans="3:5">
-      <c r="C119" s="25" t="s">
+      <c r="E119" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="28" t="s">
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="120" spans="3:5">
-      <c r="C120" s="25" t="s">
+      <c r="E120" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E120" s="28" t="s">
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="26" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="121" spans="3:5">
-      <c r="C121" s="26" t="s">
+      <c r="E121" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E121" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="28" t="s">
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="28" t="s">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="28" t="s">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="28" t="s">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="28"/>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E128" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" s="28" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="28"/>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5">
-      <c r="E129" s="28" t="s">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="28" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="5:5">
-      <c r="E130" s="28" t="s">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="28"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="5:5">
-      <c r="E131" s="28"/>
-    </row>
-    <row r="132" spans="5:5">
-      <c r="E132" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5">
-      <c r="E133" s="28" t="s">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="134" spans="5:5">
-      <c r="E134" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5">
-      <c r="E135" s="28" t="s">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="136" spans="5:5">
-      <c r="E136" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="138" spans="5:5">
-      <c r="E138" s="27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="5:5">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E140" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" s="28"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" s="28" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="5:5">
-      <c r="E141" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5">
-      <c r="E142" s="28"/>
-    </row>
-    <row r="143" spans="5:5">
-      <c r="E143" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="5:5">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E144" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="5:5">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E145" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" s="28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="5:5">
-      <c r="E146" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="147" spans="5:5">
-      <c r="E147" s="28" t="s">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" s="28"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="28" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="148" spans="5:5">
-      <c r="E148" s="28"/>
-    </row>
-    <row r="149" spans="5:5">
-      <c r="E149" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="5:5">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E150" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="5:5">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E151" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" s="27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="5:5">
-      <c r="E152" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="154" spans="5:5">
-      <c r="E154" s="27" t="s">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="155" spans="5:5">
-      <c r="E155" s="28" t="s">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="5:5">
-      <c r="E156" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="5:5">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E157" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="5:5">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E158" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" s="28"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" s="28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="5:5">
-      <c r="E159" s="28"/>
-    </row>
-    <row r="160" spans="5:5">
-      <c r="E160" s="28" t="s">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="28" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="161" spans="5:5">
-      <c r="E161" s="28" t="s">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="162" spans="5:5">
-      <c r="E162" s="28" t="s">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="5:5">
-      <c r="E163" s="28" t="s">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="28" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="164" spans="5:5">
-      <c r="E164" s="28" t="s">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="28"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="28" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="165" spans="5:5">
-      <c r="E165" s="28"/>
-    </row>
-    <row r="166" spans="5:5">
-      <c r="E166" s="28" t="s">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="28" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="167" spans="5:5">
-      <c r="E167" s="28" t="s">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="28" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="5:5">
-      <c r="E168" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5">
-      <c r="E169" s="28" t="s">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" s="28"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="170" spans="5:5">
-      <c r="E170" s="28"/>
-    </row>
-    <row r="171" spans="5:5">
-      <c r="E171" s="28" t="s">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="172" spans="5:5">
-      <c r="E172" s="28" t="s">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" s="28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="173" spans="5:5">
-      <c r="E173" s="28" t="s">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" s="28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="174" spans="5:5">
-      <c r="E174" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="175" spans="5:5">
-      <c r="E175" s="28" t="s">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="176" spans="5:5">
-      <c r="E176" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5">
-      <c r="B178" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E178" s="3" t="s">
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="24" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="C180" s="24" t="s">
+      <c r="E180" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="E180" s="27" t="s">
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="25" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="181" spans="3:5">
-      <c r="C181" s="25" t="s">
+      <c r="E181" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E181" s="28" t="s">
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="182" spans="3:5">
-      <c r="C182" s="25" t="s">
+      <c r="E182" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E182" s="28" t="s">
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C183" s="25" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="183" spans="3:5">
-      <c r="C183" s="25" t="s">
+      <c r="E183" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="E183" s="28" t="s">
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="25" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="184" spans="3:5">
-      <c r="C184" s="25" t="s">
+      <c r="E184" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="E184" s="28" t="s">
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="25" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="185" spans="3:5">
-      <c r="C185" s="25" t="s">
+      <c r="E185" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E185" s="28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5">
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C186" s="25"/>
       <c r="E186" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="3:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C187" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E187" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="E187" s="28" t="s">
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="25" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="188" spans="3:5">
-      <c r="C188" s="25" t="s">
+      <c r="E188" s="28"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E188" s="28"/>
-    </row>
-    <row r="189" spans="3:5">
-      <c r="C189" s="25" t="s">
+      <c r="E189" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="E189" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5">
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C190" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E190" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="25" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="191" spans="3:5">
-      <c r="C191" s="25" t="s">
+      <c r="E191" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="E191" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5">
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C192" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" s="25"/>
       <c r="E193" s="28"/>
     </row>
-    <row r="194" spans="3:5">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E194" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E194" s="28" t="s">
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C195" s="25" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="C195" s="25" t="s">
+      <c r="E195" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E195" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5">
-      <c r="C196" s="25" t="s">
+      <c r="E196" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="E196" s="29" t="s">
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="25" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="3:3">
-      <c r="C197" s="25" t="s">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C198" s="25" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="C198" s="25" t="s">
+      <c r="E198" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E198" s="27" t="s">
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C199" s="25" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="3:5">
-      <c r="C199" s="25" t="s">
+      <c r="E199" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E199" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5">
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E200" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E201" s="28" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="5:5">
-      <c r="E201" s="28" t="s">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="24" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="24" t="s">
-        <v>203</v>
       </c>
       <c r="E202" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="3:5">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="E203" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E203" s="28" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="C204" s="25" t="s">
+      <c r="E204" s="28"/>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C205" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E204" s="28"/>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="C205" s="25" t="s">
+      <c r="E205" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="E205" s="28" t="s">
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206" s="25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="C206" s="25" t="s">
+      <c r="E206" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="E206" s="28" t="s">
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="C207" s="25" t="s">
+      <c r="E207" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="E207" s="28" t="s">
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208" s="25" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="C208" s="25" t="s">
+      <c r="E208" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="E208" s="28" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5">
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="25"/>
       <c r="E209" s="28"/>
     </row>
-    <row r="210" spans="3:5">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" s="25" t="s">
         <v>46</v>
       </c>
       <c r="E210" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211" s="25" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="211" spans="3:5">
-      <c r="C211" s="25" t="s">
+      <c r="E211" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="E211" s="28" t="s">
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C212" s="25" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="212" spans="3:5">
-      <c r="C212" s="25" t="s">
+      <c r="E212" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="E212" s="28" t="s">
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213" s="25" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="213" spans="3:5">
-      <c r="C213" s="25" t="s">
+      <c r="E213" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="E213" s="28" t="s">
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214" s="25" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="214" spans="3:5">
-      <c r="C214" s="25" t="s">
+      <c r="E214" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="E214" s="28" t="s">
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215" s="25" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="215" spans="3:5">
-      <c r="C215" s="25" t="s">
+      <c r="E215" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="E215" s="28" t="s">
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216" s="25" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="216" spans="3:5">
-      <c r="C216" s="25" t="s">
+      <c r="E216" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="E216" s="28" t="s">
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C217" s="25" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="217" spans="3:5">
-      <c r="C217" s="25" t="s">
+      <c r="E217" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="E217" s="28" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5">
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C218" s="25" t="s">
         <v>48</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E219" s="28"/>
     </row>
-    <row r="220" spans="5:5">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E220" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221" s="27" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="221" spans="3:5">
-      <c r="C221" s="27" t="s">
+      <c r="E221" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="E221" s="28" t="s">
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E222" s="28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="222" spans="3:5">
-      <c r="C222" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="E222" s="28" t="s">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C223" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="E223" s="28"/>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E224" s="28" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="223" spans="3:5">
-      <c r="C223" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="E223" s="28"/>
-    </row>
-    <row r="224" spans="3:5">
-      <c r="C224" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E224" s="28" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225" s="28" t="s">
         <v>54</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E226" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E227" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="E226" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5">
-      <c r="C227" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E227" s="29" t="s">
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="27" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="229" spans="5:5">
-      <c r="E229" s="27" t="s">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="28" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="230" spans="5:5">
-      <c r="E230" s="28" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="231" spans="5:5">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E231" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="5:5">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E232" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="233" spans="5:5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E233" s="28"/>
     </row>
-    <row r="234" spans="5:5">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E234" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="28" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="5:5">
-      <c r="E235" s="28" t="s">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="28"/>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="28" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="5:5">
-      <c r="E236" s="28"/>
-    </row>
-    <row r="237" spans="5:5">
-      <c r="E237" s="28" t="s">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="28" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="5:5">
-      <c r="E238" s="28" t="s">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="5:5">
-      <c r="E239" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="240" spans="5:5">
-      <c r="E240" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="241" spans="5:5">
-      <c r="E241" s="29" t="s">
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="27" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="243" spans="5:5">
-      <c r="E243" s="27" t="s">
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="28" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="244" spans="5:5">
-      <c r="E244" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="245" spans="5:5">
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E245" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="5:5">
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E246" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="28" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="5:5">
-      <c r="E247" s="28" t="s">
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="28" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="5:5">
-      <c r="E248" s="28" t="s">
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="28" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="5:5">
-      <c r="E249" s="28" t="s">
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="28" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="5:5">
-      <c r="E250" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="251" spans="5:5">
-      <c r="E251" s="28" t="s">
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="28" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="5:5">
-      <c r="E252" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="253" spans="5:5">
-      <c r="E253" s="28" t="s">
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="5:5">
-      <c r="E254" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="255" spans="5:5">
-      <c r="E255" s="28" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="256" spans="5:5">
-      <c r="E256" s="28" t="s">
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="28" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="257" spans="5:5">
-      <c r="E257" s="28" t="s">
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="258" spans="5:5">
-      <c r="E258" s="28" t="s">
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="28" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="259" spans="5:5">
-      <c r="E259" s="28" t="s">
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="28" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="260" spans="5:5">
-      <c r="E260" s="28" t="s">
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="28" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="261" spans="5:5">
-      <c r="E261" s="28" t="s">
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="28" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="262" spans="5:5">
-      <c r="E262" s="28" t="s">
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="28" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="263" spans="5:5">
-      <c r="E263" s="28" t="s">
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="28" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="264" spans="5:5">
-      <c r="E264" s="28" t="s">
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="265" spans="5:5">
-      <c r="E265" s="28" t="s">
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="28" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="266" spans="5:5">
-      <c r="E266" s="28" t="s">
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="28" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="267" spans="5:5">
-      <c r="E267" s="28" t="s">
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="28" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="268" spans="5:5">
-      <c r="E268" s="28" t="s">
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="28" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="269" spans="5:5">
-      <c r="E269" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="270" spans="5:5">
-      <c r="E270" s="28" t="s">
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="28" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="271" spans="5:5">
-      <c r="E271" s="28" t="s">
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="272" spans="5:5">
-      <c r="E272" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5">
-      <c r="E273" s="28" t="s">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="28" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="274" spans="5:5">
-      <c r="E274" s="28" t="s">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="28" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="275" spans="5:5">
-      <c r="E275" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5">
-      <c r="E276" s="28" t="s">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="28" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="277" spans="5:5">
-      <c r="E277" s="28" t="s">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="28" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="278" spans="5:5">
-      <c r="E278" s="28" t="s">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="28" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="279" spans="5:5">
-      <c r="E279" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5">
-      <c r="E280" s="28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5">
-      <c r="E281" s="28" t="s">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="28" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="282" spans="5:5">
-      <c r="E282" s="28" t="s">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="29" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="283" spans="5:5">
-      <c r="E283" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5">
-      <c r="E284" s="29" t="s">
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="286" spans="2:3">
-      <c r="B286" s="3" t="s">
+      <c r="C286" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C286" s="3" t="s">
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C288" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="288" spans="3:3">
-      <c r="C288" s="3" t="s">
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="24" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="290" spans="3:3">
-      <c r="C290" s="24" t="s">
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="25" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="291" spans="3:3">
-      <c r="C291" s="25" t="s">
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="25" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="292" spans="3:3">
-      <c r="C292" s="25" t="s">
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="25" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="293" spans="3:3">
-      <c r="C293" s="25" t="s">
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="25" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="294" spans="3:3">
-      <c r="C294" s="25" t="s">
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="25" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="295" spans="3:3">
-      <c r="C295" s="25" t="s">
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="296" spans="3:3">
-      <c r="C296" s="25" t="s">
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="25" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="297" spans="3:3">
-      <c r="C297" s="25" t="s">
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="298" spans="3:3">
-      <c r="C298" s="25" t="s">
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="299" spans="3:3">
-      <c r="C299" s="25" t="s">
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="25" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="300" spans="3:3">
-      <c r="C300" s="25" t="s">
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="25" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="301" spans="3:3">
-      <c r="C301" s="25" t="s">
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="302" spans="3:3">
-      <c r="C302" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="303" spans="3:3">
-      <c r="C303" s="26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="305" spans="2:3">
-      <c r="B305" s="3" t="s">
+      <c r="C305" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C305" s="3" t="s">
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C307" s="27" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="307" spans="3:3">
-      <c r="C307" s="27" t="s">
+    <row r="308" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C308" s="28" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="3:3">
-      <c r="C308" s="28" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="309" spans="3:3">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C309" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="3:3">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C310" s="28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C311" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="311" spans="3:3">
-      <c r="C311" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5">
-      <c r="B313" s="3" t="s">
+      <c r="E313" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E313" s="3" t="s">
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="27" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="315" spans="5:5">
-      <c r="E315" s="27" t="s">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="28" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="316" spans="5:5">
-      <c r="E316" s="28" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="317" spans="5:5">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E317" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="318" spans="5:5">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E318" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="319" spans="5:5">
-      <c r="E319" s="28" t="s">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="28" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="320" spans="5:5">
-      <c r="E320" s="28" t="s">
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="28" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="321" spans="5:5">
-      <c r="E321" s="28" t="s">
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="28" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="322" spans="5:5">
-      <c r="E322" s="28" t="s">
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="28" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="323" spans="5:5">
-      <c r="E323" s="28" t="s">
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="28" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="324" spans="5:5">
-      <c r="E324" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="325" spans="5:5">
-      <c r="E325" s="28" t="s">
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="28" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="326" spans="5:5">
-      <c r="E326" s="28" t="s">
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="327" spans="5:5">
-      <c r="E327" s="28" t="s">
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="328" spans="5:5">
-      <c r="E328" s="28" t="s">
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="28" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="329" spans="5:5">
-      <c r="E329" s="28" t="s">
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="330" spans="5:5">
-      <c r="E330" s="28" t="s">
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="28" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="331" spans="5:5">
-      <c r="E331" s="28" t="s">
+    <row r="332" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E332" s="28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="332" spans="5:5">
-      <c r="E332" s="28" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="333" spans="5:5">
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E333" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="334" spans="5:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="334" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E334" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="335" spans="5:5">
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E335" s="28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="336" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E336" s="28" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="336" spans="5:5">
-      <c r="E336" s="28" t="s">
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="338" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E338" s="28" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="337" spans="5:5">
-      <c r="E337" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="338" spans="5:5">
-      <c r="E338" s="28" t="s">
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" s="28" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="339" spans="5:5">
-      <c r="E339" s="28" t="s">
+    <row r="340" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E340" s="28" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="340" spans="5:5">
-      <c r="E340" s="28" t="s">
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" s="28" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="341" spans="5:5">
-      <c r="E341" s="28" t="s">
+    <row r="342" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E342" s="28" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="342" spans="5:5">
-      <c r="E342" s="28" t="s">
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E344" s="28" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="343" spans="5:5">
-      <c r="E343" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="344" spans="5:5">
-      <c r="E344" s="28" t="s">
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" s="28" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="345" spans="5:5">
-      <c r="E345" s="28" t="s">
+    <row r="346" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E346" s="28" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="346" spans="5:5">
-      <c r="E346" s="28" t="s">
+    <row r="347" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E347" s="28" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="347" spans="5:5">
-      <c r="E347" s="28" t="s">
+    <row r="348" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E348" s="28" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="348" spans="5:5">
-      <c r="E348" s="28" t="s">
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" s="28" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="349" spans="5:5">
-      <c r="E349" s="28" t="s">
+    <row r="350" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E350" s="28" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="350" spans="5:5">
-      <c r="E350" s="28" t="s">
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="352" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E352" s="28" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="351" spans="5:5">
-      <c r="E351" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="352" spans="5:5">
-      <c r="E352" s="28" t="s">
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" s="28" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="353" spans="5:5">
-      <c r="E353" s="28" t="s">
+    <row r="354" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E354" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" s="29" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="354" spans="5:5">
-      <c r="E354" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="355" spans="5:5">
-      <c r="E355" s="29" t="s">
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" s="27" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="357" spans="5:5">
-      <c r="E357" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="358" spans="5:5">
+    <row r="358" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E358" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="359" spans="5:5">
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E359" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="360" spans="5:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="360" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E360" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" s="28"/>
+    </row>
+    <row r="362" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E362" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="363" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E363" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="364" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E364" s="28" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="361" spans="5:5">
-      <c r="E361" s="28"/>
-    </row>
-    <row r="362" spans="5:5">
-      <c r="E362" s="28" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="363" spans="5:5">
-      <c r="E363" s="28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="364" spans="5:5">
-      <c r="E364" s="28" t="s">
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" s="28" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="365" spans="5:5">
-      <c r="E365" s="28" t="s">
+    <row r="366" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E366" s="28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="368" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E368" s="29" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="366" spans="5:5">
-      <c r="E366" s="28" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="367" spans="5:5">
-      <c r="E367" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="368" spans="5:5">
-      <c r="E368" s="29" t="s">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B370" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="370" spans="2:5">
-      <c r="B370" s="3" t="s">
+      <c r="E370" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E370" s="3" t="s">
+    </row>
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E372" s="27" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="372" spans="5:5">
-      <c r="E372" s="27" t="s">
+    <row r="373" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E373" s="28" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="373" spans="5:5">
-      <c r="E373" s="28" t="s">
+    <row r="374" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E374" s="28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="374" spans="5:5">
-      <c r="E374" s="28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="375" spans="5:5">
+    <row r="375" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E375" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="376" spans="5:5">
+    <row r="376" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E376" s="28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="377" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E377" s="28" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="377" spans="5:5">
-      <c r="E377" s="28" t="s">
+    <row r="378" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E378" s="28"/>
+    </row>
+    <row r="379" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E379" s="28" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="378" spans="5:5">
-      <c r="E378" s="28"/>
-    </row>
-    <row r="379" spans="5:5">
-      <c r="E379" s="28" t="s">
+    <row r="380" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E380" s="28" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="380" spans="5:5">
-      <c r="E380" s="28" t="s">
+    <row r="381" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E381" s="28" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="381" spans="5:5">
-      <c r="E381" s="28" t="s">
+    <row r="382" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E382" s="28" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="382" spans="5:5">
-      <c r="E382" s="28" t="s">
+    <row r="383" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E383" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="384" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E384" s="28" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="383" spans="5:5">
-      <c r="E383" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="384" spans="5:5">
-      <c r="E384" s="28" t="s">
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E386" s="29" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="385" spans="5:5">
-      <c r="E385" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="386" spans="5:5">
-      <c r="E386" s="29" t="s">
+    <row r="388" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E388" s="27" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="388" spans="5:5">
-      <c r="E388" s="27" t="s">
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" s="28" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="389" spans="5:5">
-      <c r="E389" s="28" t="s">
+    <row r="390" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E390" s="28" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="390" spans="5:5">
-      <c r="E390" s="28" t="s">
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" s="28" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="391" spans="5:5">
-      <c r="E391" s="28" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="392" spans="5:5">
+    <row r="392" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E392" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="393" spans="5:5">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E393" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E394" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="394" spans="5:5">
-      <c r="E394" s="28" t="s">
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="395" spans="5:5">
-      <c r="E395" s="28" t="s">
+    <row r="396" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E396" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="396" spans="5:5">
-      <c r="E396" s="28" t="s">
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="397" spans="5:5">
-      <c r="E397" s="28" t="s">
+    <row r="398" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E398" s="28" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="398" spans="5:5">
-      <c r="E398" s="28" t="s">
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" s="27" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="399" spans="5:5">
-      <c r="E399" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="401" spans="5:5">
-      <c r="E401" s="27" t="s">
+    <row r="402" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E402" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="402" spans="5:5">
-      <c r="E402" s="28" t="s">
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="403" spans="5:5">
-      <c r="E403" s="28" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="404" spans="5:5">
+    <row r="404" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E404" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="405" spans="5:5">
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E405" s="28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E406" s="28" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="406" spans="5:5">
-      <c r="E406" s="28" t="s">
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" s="28" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="407" spans="5:5">
-      <c r="E407" s="28" t="s">
+    <row r="408" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E408" s="28"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="408" spans="5:5">
-      <c r="E408" s="28"/>
-    </row>
-    <row r="409" spans="5:5">
-      <c r="E409" s="28" t="s">
+    <row r="410" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E410" s="28" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="410" spans="5:5">
-      <c r="E410" s="28" t="s">
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" s="28" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="411" spans="5:5">
-      <c r="E411" s="28" t="s">
+    <row r="412" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E412" s="28"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" s="28" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="412" spans="5:5">
-      <c r="E412" s="28"/>
-    </row>
-    <row r="413" spans="5:5">
-      <c r="E413" s="28" t="s">
+    <row r="414" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E414" s="28"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" s="28" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="414" spans="5:5">
-      <c r="E414" s="28"/>
-    </row>
-    <row r="415" spans="5:5">
-      <c r="E415" s="28" t="s">
+    <row r="416" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E416" s="28" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="416" spans="5:5">
-      <c r="E416" s="28" t="s">
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" s="28" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="417" spans="5:5">
-      <c r="E417" s="28" t="s">
+    <row r="418" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E418" s="28"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" s="28" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="418" spans="5:5">
-      <c r="E418" s="28"/>
-    </row>
-    <row r="419" spans="5:5">
-      <c r="E419" s="28" t="s">
+    <row r="420" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E420" s="28" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="420" spans="5:5">
-      <c r="E420" s="28" t="s">
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" s="28"/>
+    </row>
+    <row r="422" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E422" s="28" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="421" spans="5:5">
-      <c r="E421" s="28"/>
-    </row>
-    <row r="422" spans="5:5">
-      <c r="E422" s="28" t="s">
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" s="28" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="423" spans="5:5">
-      <c r="E423" s="28" t="s">
+    <row r="424" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E424" s="28"/>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" s="28" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="424" spans="5:5">
-      <c r="E424" s="28"/>
-    </row>
-    <row r="425" spans="5:5">
-      <c r="E425" s="28" t="s">
+    <row r="426" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E426" s="28" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="426" spans="5:5">
-      <c r="E426" s="28" t="s">
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" s="28" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="427" spans="5:5">
-      <c r="E427" s="28" t="s">
+    <row r="428" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E428" s="28" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="428" spans="5:5">
-      <c r="E428" s="28" t="s">
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="430" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E430" s="28" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="429" spans="5:5">
-      <c r="E429" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="430" spans="5:5">
-      <c r="E430" s="28" t="s">
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" s="28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="431" spans="5:5">
-      <c r="E431" s="28" t="s">
+    <row r="432" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E432" s="28" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="432" spans="5:5">
-      <c r="E432" s="28" t="s">
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="433" spans="5:5">
-      <c r="E433" s="28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="434" spans="5:5">
-      <c r="E434" s="28" t="s">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="29" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="435" spans="5:5">
-      <c r="E435" s="28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="436" spans="5:5">
-      <c r="E436" s="29" t="s">
-        <v>383</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:BZ66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:BZ77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AS45" sqref="AS45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66666666666667" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="46" width="2.66666666666667" style="3"/>
-    <col min="47" max="47" width="5.75" style="3"/>
-    <col min="48" max="16384" width="2.66666666666667" style="3"/>
+    <col min="1" max="45" width="2.6640625" style="3"/>
+    <col min="46" max="49" width="2.77734375" style="3" customWidth="1"/>
+    <col min="50" max="16384" width="2.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="2:78">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5029,9 +4571,9 @@
       <c r="BY4" s="4"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="2:78">
+    <row r="5" spans="2:78" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5078,7 +4620,7 @@
       <c r="AS5" s="6"/>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
@@ -5112,7 +4654,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="19"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.5" spans="2:78">
+    <row r="6" spans="2:78" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -5191,9 +4733,9 @@
       <c r="BY6" s="8"/>
       <c r="BZ6" s="20"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="2:78">
+    <row r="7" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -5240,7 +4782,7 @@
       <c r="AS7" s="10"/>
       <c r="AT7" s="10"/>
       <c r="AU7" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AV7" s="10"/>
       <c r="AW7" s="10"/>
@@ -5274,9 +4816,9 @@
       <c r="BY7" s="10"/>
       <c r="BZ7" s="21"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="2:78">
+    <row r="8" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -5355,9 +4897,9 @@
       <c r="BY8" s="10"/>
       <c r="BZ8" s="21"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="2:78">
+    <row r="9" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -5436,9 +4978,9 @@
       <c r="BY9" s="10"/>
       <c r="BZ9" s="21"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="2:78">
+    <row r="10" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -5517,9 +5059,9 @@
       <c r="BY10" s="10"/>
       <c r="BZ10" s="21"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="2:78">
+    <row r="11" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -5598,7 +5140,7 @@
       <c r="BY11" s="10"/>
       <c r="BZ11" s="21"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="2:78">
+    <row r="12" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -5677,9 +5219,9 @@
       <c r="BY12" s="10"/>
       <c r="BZ12" s="21"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="2:78">
+    <row r="13" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -5758,7 +5300,7 @@
       <c r="BY13" s="10"/>
       <c r="BZ13" s="21"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="2:78">
+    <row r="14" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -5837,9 +5379,9 @@
       <c r="BY14" s="10"/>
       <c r="BZ14" s="21"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="2:78">
+    <row r="15" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -5886,7 +5428,7 @@
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
       <c r="AU15" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AV15" s="10"/>
       <c r="AW15" s="10"/>
@@ -5920,7 +5462,7 @@
       <c r="BY15" s="10"/>
       <c r="BZ15" s="21"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="2:78">
+    <row r="16" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -5999,9 +5541,9 @@
       <c r="BY16" s="10"/>
       <c r="BZ16" s="21"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="2:78">
+    <row r="17" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -6048,7 +5590,7 @@
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV17" s="10"/>
       <c r="AW17" s="10"/>
@@ -6082,7 +5624,7 @@
       <c r="BY17" s="10"/>
       <c r="BZ17" s="21"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:78">
+    <row r="18" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -6161,9 +5703,9 @@
       <c r="BY18" s="8"/>
       <c r="BZ18" s="20"/>
     </row>
-    <row r="19" spans="2:78">
+    <row r="19" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -6210,7 +5752,7 @@
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AV19" s="10"/>
       <c r="AW19" s="10"/>
@@ -6244,10 +5786,10 @@
       <c r="BY19" s="10"/>
       <c r="BZ19" s="21"/>
     </row>
-    <row r="20" spans="2:78">
+    <row r="20" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -6293,7 +5835,7 @@
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV20" s="10"/>
       <c r="AW20" s="10"/>
@@ -6327,11 +5869,11 @@
       <c r="BY20" s="10"/>
       <c r="BZ20" s="21"/>
     </row>
-    <row r="21" spans="2:78">
+    <row r="21" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -6376,7 +5918,7 @@
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AV21" s="10"/>
       <c r="AW21" s="10"/>
@@ -6410,11 +5952,11 @@
       <c r="BY21" s="10"/>
       <c r="BZ21" s="21"/>
     </row>
-    <row r="22" spans="2:78">
+    <row r="22" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -6459,7 +6001,7 @@
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV22" s="10"/>
       <c r="AW22" s="10"/>
@@ -6493,11 +6035,11 @@
       <c r="BY22" s="10"/>
       <c r="BZ22" s="21"/>
     </row>
-    <row r="23" spans="2:78">
+    <row r="23" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -6542,7 +6084,7 @@
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AV23" s="10"/>
       <c r="AW23" s="10"/>
@@ -6576,11 +6118,11 @@
       <c r="BY23" s="10"/>
       <c r="BZ23" s="21"/>
     </row>
-    <row r="24" spans="2:78">
+    <row r="24" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -6657,10 +6199,10 @@
       <c r="BY24" s="10"/>
       <c r="BZ24" s="21"/>
     </row>
-    <row r="25" spans="2:78">
+    <row r="25" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
@@ -6706,7 +6248,7 @@
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AV25" s="10"/>
       <c r="AW25" s="10"/>
@@ -6740,11 +6282,11 @@
       <c r="BY25" s="10"/>
       <c r="BZ25" s="21"/>
     </row>
-    <row r="26" spans="2:78">
+    <row r="26" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B26" s="12"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -6789,7 +6331,7 @@
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AV26" s="10"/>
       <c r="AW26" s="10"/>
@@ -6823,12 +6365,12 @@
       <c r="BY26" s="10"/>
       <c r="BZ26" s="21"/>
     </row>
-    <row r="27" spans="2:78">
+    <row r="27" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B27" s="12"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -6872,7 +6414,7 @@
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AV27" s="10"/>
       <c r="AW27" s="10"/>
@@ -6906,13 +6448,13 @@
       <c r="BY27" s="10"/>
       <c r="BZ27" s="21"/>
     </row>
-    <row r="28" spans="2:78">
+    <row r="28" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -6955,7 +6497,7 @@
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
       <c r="AU28" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV28" s="10"/>
       <c r="AW28" s="10"/>
@@ -6989,14 +6531,14 @@
       <c r="BY28" s="10"/>
       <c r="BZ28" s="21"/>
     </row>
-    <row r="29" spans="2:78">
+    <row r="29" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7038,7 +6580,7 @@
       <c r="AS29" s="10"/>
       <c r="AT29" s="10"/>
       <c r="AU29" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV29" s="10"/>
       <c r="AW29" s="10"/>
@@ -7072,7 +6614,7 @@
       <c r="BY29" s="10"/>
       <c r="BZ29" s="21"/>
     </row>
-    <row r="30" spans="2:78">
+    <row r="30" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -7080,7 +6622,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -7121,7 +6663,7 @@
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
       <c r="AU30" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AV30" s="10"/>
       <c r="AW30" s="10"/>
@@ -7155,7 +6697,7 @@
       <c r="BY30" s="10"/>
       <c r="BZ30" s="21"/>
     </row>
-    <row r="31" spans="2:78">
+    <row r="31" spans="2:78" ht="12.6" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7164,7 +6706,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="10"/>
@@ -7204,7 +6746,7 @@
       <c r="AS31" s="10"/>
       <c r="AT31" s="10"/>
       <c r="AU31" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AV31" s="10"/>
       <c r="AW31" s="10"/>
@@ -7238,7 +6780,7 @@
       <c r="BY31" s="10"/>
       <c r="BZ31" s="21"/>
     </row>
-    <row r="32" spans="2:78">
+    <row r="32" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -7248,7 +6790,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
@@ -7287,7 +6829,7 @@
       <c r="AS32" s="14"/>
       <c r="AT32" s="14"/>
       <c r="AU32" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AV32" s="14"/>
       <c r="AW32" s="14"/>
@@ -7321,9 +6863,9 @@
       <c r="BY32" s="14"/>
       <c r="BZ32" s="22"/>
     </row>
-    <row r="34" spans="2:78">
+    <row r="34" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -7402,367 +6944,446 @@
       <c r="BY34" s="15"/>
       <c r="BZ34" s="15"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU37" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="AU39" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="37" spans="2:47">
-      <c r="B37" s="3" t="s">
+      <c r="AU40" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D41" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AU41" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="AU42" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="43" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="AU43" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="44" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="AU44" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="G45" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="46" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="G46" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="G47" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="2:78" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="D49" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="AU49" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="AU50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D52" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AU37" s="3" t="s">
+      <c r="AU52" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="AU53" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="54" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="AU54" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D55" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="AU55" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="2:78" ht="12.6" x14ac:dyDescent="0.25">
+      <c r="D56" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="AU56" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="39" spans="2:47">
-      <c r="B39" s="3" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AR62" s="4"/>
+      <c r="AS62" s="4"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="4"/>
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+      <c r="BD62" s="4"/>
+      <c r="BE62" s="4"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="4"/>
+      <c r="BH62" s="4"/>
+      <c r="BI62" s="4"/>
+      <c r="BJ62" s="4"/>
+      <c r="BK62" s="4"/>
+      <c r="BL62" s="4"/>
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="4"/>
+      <c r="BO62" s="4"/>
+      <c r="BP62" s="4"/>
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="4"/>
+      <c r="BT62" s="4"/>
+      <c r="BU62" s="4"/>
+      <c r="BV62" s="4"/>
+      <c r="BW62" s="4"/>
+      <c r="BX62" s="4"/>
+      <c r="BY62" s="4"/>
+      <c r="BZ62" s="4"/>
+    </row>
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B63" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="AU39" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="40" spans="3:47">
-      <c r="C40" s="3" t="s">
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+      <c r="AH63" s="17"/>
+      <c r="AI63" s="17"/>
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+      <c r="AL63" s="17"/>
+      <c r="AM63" s="17"/>
+      <c r="AN63" s="17"/>
+      <c r="AO63" s="17"/>
+      <c r="AP63" s="17"/>
+      <c r="AQ63" s="17"/>
+      <c r="AR63" s="17"/>
+      <c r="AS63" s="17"/>
+      <c r="AT63" s="17"/>
+      <c r="AU63" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="AU40" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" s="3" t="s">
+      <c r="AV63" s="17"/>
+      <c r="AW63" s="17"/>
+      <c r="AX63" s="17"/>
+      <c r="AY63" s="17"/>
+      <c r="AZ63" s="17"/>
+      <c r="BA63" s="17"/>
+      <c r="BB63" s="17"/>
+      <c r="BC63" s="17"/>
+      <c r="BD63" s="17"/>
+      <c r="BE63" s="17"/>
+      <c r="BF63" s="17"/>
+      <c r="BG63" s="17"/>
+      <c r="BH63" s="17"/>
+      <c r="BI63" s="17"/>
+      <c r="BJ63" s="17"/>
+      <c r="BK63" s="17"/>
+      <c r="BL63" s="17"/>
+      <c r="BM63" s="17"/>
+      <c r="BN63" s="17"/>
+      <c r="BO63" s="17"/>
+      <c r="BP63" s="17"/>
+      <c r="BQ63" s="17"/>
+      <c r="BR63" s="17"/>
+      <c r="BS63" s="17"/>
+      <c r="BT63" s="17"/>
+      <c r="BU63" s="17"/>
+      <c r="BV63" s="17"/>
+      <c r="BW63" s="17"/>
+      <c r="BX63" s="17"/>
+      <c r="BY63" s="17"/>
+      <c r="BZ63" s="23"/>
+    </row>
+    <row r="64" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="C64" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="42" spans="5:47">
-      <c r="E42" s="3" t="s">
+      <c r="AU64" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D65" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="AU42" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="6:47">
-      <c r="F43" s="3" t="s">
+    </row>
+    <row r="72" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B72" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="AU43" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="5:47">
-      <c r="E44" s="3" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="4"/>
+      <c r="AH72" s="4"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="4"/>
+      <c r="AO72" s="4"/>
+      <c r="AP72" s="4"/>
+      <c r="AQ72" s="4"/>
+      <c r="AR72" s="4"/>
+      <c r="AS72" s="4"/>
+      <c r="AT72" s="4"/>
+      <c r="AU72" s="4"/>
+      <c r="AV72" s="4"/>
+      <c r="AW72" s="4"/>
+      <c r="AX72" s="4"/>
+      <c r="AY72" s="4"/>
+      <c r="AZ72" s="4"/>
+      <c r="BA72" s="4"/>
+      <c r="BB72" s="4"/>
+      <c r="BC72" s="4"/>
+      <c r="BD72" s="4"/>
+      <c r="BE72" s="4"/>
+      <c r="BF72" s="4"/>
+      <c r="BG72" s="4"/>
+      <c r="BH72" s="4"/>
+      <c r="BI72" s="4"/>
+      <c r="BJ72" s="4"/>
+      <c r="BK72" s="4"/>
+      <c r="BL72" s="4"/>
+      <c r="BM72" s="4"/>
+      <c r="BN72" s="4"/>
+      <c r="BO72" s="4"/>
+      <c r="BP72" s="4"/>
+      <c r="BQ72" s="4"/>
+      <c r="BR72" s="4"/>
+      <c r="BS72" s="4"/>
+      <c r="BT72" s="4"/>
+      <c r="BU72" s="4"/>
+      <c r="BV72" s="4"/>
+      <c r="BW72" s="4"/>
+      <c r="BX72" s="4"/>
+      <c r="BY72" s="4"/>
+      <c r="BZ72" s="4"/>
+    </row>
+    <row r="73" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="AU44" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="3" t="s">
+      <c r="AU73" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="51" spans="2:78">
-      <c r="B51" s="4" t="s">
+      <c r="AU74" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="75" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="D75" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-      <c r="AG51" s="4"/>
-      <c r="AH51" s="4"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="4"/>
-      <c r="AO51" s="4"/>
-      <c r="AP51" s="4"/>
-      <c r="AQ51" s="4"/>
-      <c r="AR51" s="4"/>
-      <c r="AS51" s="4"/>
-      <c r="AT51" s="4"/>
-      <c r="AU51" s="4"/>
-      <c r="AV51" s="4"/>
-      <c r="AW51" s="4"/>
-      <c r="AX51" s="4"/>
-      <c r="AY51" s="4"/>
-      <c r="AZ51" s="4"/>
-      <c r="BA51" s="4"/>
-      <c r="BB51" s="4"/>
-      <c r="BC51" s="4"/>
-      <c r="BD51" s="4"/>
-      <c r="BE51" s="4"/>
-      <c r="BF51" s="4"/>
-      <c r="BG51" s="4"/>
-      <c r="BH51" s="4"/>
-      <c r="BI51" s="4"/>
-      <c r="BJ51" s="4"/>
-      <c r="BK51" s="4"/>
-      <c r="BL51" s="4"/>
-      <c r="BM51" s="4"/>
-      <c r="BN51" s="4"/>
-      <c r="BO51" s="4"/>
-      <c r="BP51" s="4"/>
-      <c r="BQ51" s="4"/>
-      <c r="BR51" s="4"/>
-      <c r="BS51" s="4"/>
-      <c r="BT51" s="4"/>
-      <c r="BU51" s="4"/>
-      <c r="BV51" s="4"/>
-      <c r="BW51" s="4"/>
-      <c r="BX51" s="4"/>
-      <c r="BY51" s="4"/>
-      <c r="BZ51" s="4"/>
-    </row>
-    <row r="52" spans="2:78">
-      <c r="B52" s="16" t="s">
+      <c r="AU75" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="E76" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17" t="s">
+      <c r="AU76" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="2:78" x14ac:dyDescent="0.25">
+      <c r="F77" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-      <c r="BF52" s="17"/>
-      <c r="BG52" s="17"/>
-      <c r="BH52" s="17"/>
-      <c r="BI52" s="17"/>
-      <c r="BJ52" s="17"/>
-      <c r="BK52" s="17"/>
-      <c r="BL52" s="17"/>
-      <c r="BM52" s="17"/>
-      <c r="BN52" s="17"/>
-      <c r="BO52" s="17"/>
-      <c r="BP52" s="17"/>
-      <c r="BQ52" s="17"/>
-      <c r="BR52" s="17"/>
-      <c r="BS52" s="17"/>
-      <c r="BT52" s="17"/>
-      <c r="BU52" s="17"/>
-      <c r="BV52" s="17"/>
-      <c r="BW52" s="17"/>
-      <c r="BX52" s="17"/>
-      <c r="BY52" s="17"/>
-      <c r="BZ52" s="23"/>
-    </row>
-    <row r="53" spans="3:47">
-      <c r="C53" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU53" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="2:78">
-      <c r="B61" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="4"/>
-      <c r="AH61" s="4"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="4"/>
-      <c r="AT61" s="4"/>
-      <c r="AU61" s="4"/>
-      <c r="AV61" s="4"/>
-      <c r="AW61" s="4"/>
-      <c r="AX61" s="4"/>
-      <c r="AY61" s="4"/>
-      <c r="AZ61" s="4"/>
-      <c r="BA61" s="4"/>
-      <c r="BB61" s="4"/>
-      <c r="BC61" s="4"/>
-      <c r="BD61" s="4"/>
-      <c r="BE61" s="4"/>
-      <c r="BF61" s="4"/>
-      <c r="BG61" s="4"/>
-      <c r="BH61" s="4"/>
-      <c r="BI61" s="4"/>
-      <c r="BJ61" s="4"/>
-      <c r="BK61" s="4"/>
-      <c r="BL61" s="4"/>
-      <c r="BM61" s="4"/>
-      <c r="BN61" s="4"/>
-      <c r="BO61" s="4"/>
-      <c r="BP61" s="4"/>
-      <c r="BQ61" s="4"/>
-      <c r="BR61" s="4"/>
-      <c r="BS61" s="4"/>
-      <c r="BT61" s="4"/>
-      <c r="BU61" s="4"/>
-      <c r="BV61" s="4"/>
-      <c r="BW61" s="4"/>
-      <c r="BX61" s="4"/>
-      <c r="BY61" s="4"/>
-      <c r="BZ61" s="4"/>
-    </row>
-    <row r="62" spans="2:47">
-      <c r="B62" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="AU62" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="3:47">
-      <c r="C63" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="AU63" s="3" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="64" spans="4:47">
-      <c r="D64" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AU64" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="5:47">
-      <c r="E65" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="AU65" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="3" t="s">
-        <v>439</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>